--- a/tut05/output/0501ME12.xlsx
+++ b/tut05/output/0501ME12.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.081632653061224</v>
+        <v>8.08</v>
       </c>
       <c r="C6" t="n">
-        <v>8.090909090909092</v>
+        <v>8.09</v>
       </c>
       <c r="D6" t="n">
-        <v>8.425531914893616</v>
+        <v>8.43</v>
       </c>
       <c r="E6" t="n">
-        <v>7.755102040816326</v>
+        <v>7.76</v>
       </c>
       <c r="F6" t="n">
-        <v>9.086956521739131</v>
+        <v>9.09</v>
       </c>
       <c r="G6" t="n">
-        <v>8.652173913043478</v>
+        <v>8.65</v>
       </c>
       <c r="H6" t="n">
         <v>8.449999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.081632653061224</v>
+        <v>8.08</v>
       </c>
       <c r="C8" t="n">
-        <v>8.086021505376344</v>
+        <v>8.09</v>
       </c>
       <c r="D8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.084656084656086</v>
+        <v>8.08</v>
       </c>
       <c r="F8" t="n">
-        <v>8.280851063829788</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>8.341637010676157</v>
+        <v>8.34</v>
       </c>
       <c r="H8" t="n">
-        <v>8.355140186915888</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.343490304709141</v>
+        <v>8.34</v>
       </c>
     </row>
   </sheetData>
